--- a/Code/Results/Cases/Case_9_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.694257745482844</v>
+        <v>2.488627374890655</v>
       </c>
       <c r="C2">
-        <v>0.4044815463881264</v>
+        <v>0.4484993142608289</v>
       </c>
       <c r="D2">
-        <v>0.01655850327637332</v>
+        <v>0.02065889745032301</v>
       </c>
       <c r="E2">
-        <v>0.03476573791027471</v>
+        <v>0.03495241070019339</v>
       </c>
       <c r="F2">
-        <v>1.423491216577361</v>
+        <v>1.257613236306398</v>
       </c>
       <c r="G2">
-        <v>1.234274205835419</v>
+        <v>1.046628680313745</v>
       </c>
       <c r="H2">
-        <v>0.01017283271167012</v>
+        <v>0.008243154093490856</v>
       </c>
       <c r="I2">
-        <v>0.01028277561303437</v>
+        <v>0.007380565481772905</v>
       </c>
       <c r="J2">
-        <v>0.8058300307218218</v>
+        <v>0.7355249201055187</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06532428341961882</v>
+        <v>0.287289096901155</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2213815851266645</v>
       </c>
       <c r="N2">
-        <v>0.1690838491840481</v>
+        <v>0.06380102906322804</v>
       </c>
       <c r="O2">
-        <v>0.4611710534658044</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.056153047270054</v>
+        <v>0.1943542310647999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4460749372576345</v>
+      </c>
+      <c r="R2">
+        <v>0.9943642364007896</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.358100772897444</v>
+        <v>2.182904044307463</v>
       </c>
       <c r="C3">
-        <v>0.3545535518581175</v>
+        <v>0.3893420980391227</v>
       </c>
       <c r="D3">
-        <v>0.01559688232633505</v>
+        <v>0.01951319840852506</v>
       </c>
       <c r="E3">
-        <v>0.03306083650573877</v>
+        <v>0.03350410103051493</v>
       </c>
       <c r="F3">
-        <v>1.341445154758929</v>
+        <v>1.193199748521678</v>
       </c>
       <c r="G3">
-        <v>1.150994261311922</v>
+        <v>0.9855745399569429</v>
       </c>
       <c r="H3">
-        <v>0.01377635671329974</v>
+        <v>0.01117298512150879</v>
       </c>
       <c r="I3">
-        <v>0.01401528987200562</v>
+        <v>0.01007107668490193</v>
       </c>
       <c r="J3">
-        <v>0.7713509246185311</v>
+        <v>0.7044703065050584</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06197468780953796</v>
+        <v>0.2866526916962187</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2105877144481987</v>
       </c>
       <c r="N3">
-        <v>0.1514207479376282</v>
+        <v>0.06067338370121966</v>
       </c>
       <c r="O3">
-        <v>0.4053572410577715</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.091929808366579</v>
+        <v>0.1742566475482903</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3925043971122832</v>
+      </c>
+      <c r="R3">
+        <v>1.026335923671079</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.151462495574208</v>
+        <v>1.99439267889278</v>
       </c>
       <c r="C4">
-        <v>0.3241333278855905</v>
+        <v>0.3533642557191854</v>
       </c>
       <c r="D4">
-        <v>0.01501792483784214</v>
+        <v>0.01882640242464184</v>
       </c>
       <c r="E4">
-        <v>0.03200525178748659</v>
+        <v>0.03260425148584178</v>
       </c>
       <c r="F4">
-        <v>1.291768393951997</v>
+        <v>1.154044717646173</v>
       </c>
       <c r="G4">
-        <v>1.100500741467698</v>
+        <v>0.9486366207975863</v>
       </c>
       <c r="H4">
-        <v>0.01634779244046564</v>
+        <v>0.01326652935367745</v>
       </c>
       <c r="I4">
-        <v>0.01672799187601903</v>
+        <v>0.01205108040278136</v>
       </c>
       <c r="J4">
-        <v>0.7505939083835358</v>
+        <v>0.6853796045798219</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05988893254524896</v>
+        <v>0.2860755176817769</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2047493315269868</v>
       </c>
       <c r="N4">
-        <v>0.1406425666381494</v>
+        <v>0.05872627485124138</v>
       </c>
       <c r="O4">
-        <v>0.3711042688780637</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.114424597135248</v>
+        <v>0.1620165864749055</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3595722925667388</v>
+      </c>
+      <c r="R4">
+        <v>1.046586693128975</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.065566034550613</v>
+        <v>1.915867496491643</v>
       </c>
       <c r="C5">
-        <v>0.3122181048279913</v>
+        <v>0.3392319245581064</v>
       </c>
       <c r="D5">
-        <v>0.01480114877951344</v>
+        <v>0.01857002948380604</v>
       </c>
       <c r="E5">
-        <v>0.03156673285535927</v>
+        <v>0.03222962062390355</v>
       </c>
       <c r="F5">
-        <v>1.270548109887883</v>
+        <v>1.137153250121287</v>
       </c>
       <c r="G5">
-        <v>1.078856404193317</v>
+        <v>0.9326372078935492</v>
       </c>
       <c r="H5">
-        <v>0.01749026082084243</v>
+        <v>0.01419744936687814</v>
       </c>
       <c r="I5">
-        <v>0.01802859597919859</v>
+        <v>0.01304055166874285</v>
       </c>
       <c r="J5">
-        <v>0.7416174816724208</v>
+        <v>0.6770242841255509</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0590203207895259</v>
+        <v>0.2854696141934703</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2023440700232335</v>
       </c>
       <c r="N5">
-        <v>0.136398906408445</v>
+        <v>0.05792013056108036</v>
       </c>
       <c r="O5">
-        <v>0.3570257566005068</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.123485581800399</v>
+        <v>0.157187379434184</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3460253716428028</v>
+      </c>
+      <c r="R5">
+        <v>1.054898361269775</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.049324480497205</v>
+        <v>1.900986050106098</v>
       </c>
       <c r="C6">
-        <v>0.3107697919976431</v>
+        <v>0.3374419545326077</v>
       </c>
       <c r="D6">
-        <v>0.01478572294777436</v>
+        <v>0.01855175595127179</v>
       </c>
       <c r="E6">
-        <v>0.03148697324463312</v>
+        <v>0.03216135070240411</v>
       </c>
       <c r="F6">
-        <v>1.265641544107666</v>
+        <v>1.133100734300953</v>
       </c>
       <c r="G6">
-        <v>1.073786586986259</v>
+        <v>0.9286778609888415</v>
       </c>
       <c r="H6">
-        <v>0.01769498302409156</v>
+        <v>0.0143643876148693</v>
       </c>
       <c r="I6">
-        <v>0.01837237767963185</v>
+        <v>0.01334471619110467</v>
       </c>
       <c r="J6">
-        <v>0.739380792157263</v>
+        <v>0.6749427562560726</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05886304476669801</v>
+        <v>0.2849717188127237</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2016848645523304</v>
       </c>
       <c r="N6">
-        <v>0.1358588181340394</v>
+        <v>0.05777964247380041</v>
       </c>
       <c r="O6">
-        <v>0.3545399057444811</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.124714013277275</v>
+        <v>0.1565528672213716</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.343635016028081</v>
+      </c>
+      <c r="R6">
+        <v>1.056177912475204</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.144894364635263</v>
+        <v>1.986123387159523</v>
       </c>
       <c r="C7">
-        <v>0.3254163891686517</v>
+        <v>0.3538770819593537</v>
       </c>
       <c r="D7">
-        <v>0.01507065349103343</v>
+        <v>0.01896169778443024</v>
       </c>
       <c r="E7">
-        <v>0.03198099713033897</v>
+        <v>0.03258381550790246</v>
       </c>
       <c r="F7">
-        <v>1.287676204656833</v>
+        <v>1.1483282382341</v>
       </c>
       <c r="G7">
-        <v>1.096150014544534</v>
+        <v>0.9486350134495467</v>
       </c>
       <c r="H7">
-        <v>0.01638836015861178</v>
+        <v>0.01331220427876492</v>
       </c>
       <c r="I7">
-        <v>0.01705895445432049</v>
+        <v>0.0124262003075577</v>
       </c>
       <c r="J7">
-        <v>0.7484184676854539</v>
+        <v>0.6757562505222836</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05984341268355564</v>
+        <v>0.2845323249987644</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2036153620057277</v>
       </c>
       <c r="N7">
-        <v>0.141033298501597</v>
+        <v>0.05867991529851757</v>
       </c>
       <c r="O7">
-        <v>0.3705083593036065</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.113789446269098</v>
+        <v>0.1623663151351877</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3586859072042046</v>
+      </c>
+      <c r="R7">
+        <v>1.04631454821012</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.571144507179781</v>
+        <v>2.369312236188193</v>
       </c>
       <c r="C8">
-        <v>0.3891416814389856</v>
+        <v>0.4273263631731936</v>
       </c>
       <c r="D8">
-        <v>0.01629783790592043</v>
+        <v>0.02059605776437401</v>
       </c>
       <c r="E8">
-        <v>0.03415542131200111</v>
+        <v>0.0344371530022044</v>
       </c>
       <c r="F8">
-        <v>1.390003967766091</v>
+        <v>1.223954623479344</v>
       </c>
       <c r="G8">
-        <v>1.200031119028296</v>
+        <v>1.033432490277264</v>
       </c>
       <c r="H8">
-        <v>0.01136545390655763</v>
+        <v>0.009244649975417199</v>
       </c>
       <c r="I8">
-        <v>0.01184984609202377</v>
+        <v>0.00868852681394916</v>
       </c>
       <c r="J8">
-        <v>0.7911327736488545</v>
+        <v>0.6972565134475985</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0641315542198293</v>
+        <v>0.2843139147447395</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2152062798505057</v>
       </c>
       <c r="N8">
-        <v>0.1635760534704858</v>
+        <v>0.06264725061985565</v>
       </c>
       <c r="O8">
-        <v>0.441376336987922</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.067461586914975</v>
+        <v>0.1878777979459798</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4260239883143342</v>
+      </c>
+      <c r="R8">
+        <v>1.004807751659358</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.415875655634181</v>
+        <v>3.132001651702637</v>
       </c>
       <c r="C9">
-        <v>0.513754945655279</v>
+        <v>0.574671216955096</v>
       </c>
       <c r="D9">
-        <v>0.0187138062562564</v>
+        <v>0.02355953935928667</v>
       </c>
       <c r="E9">
-        <v>0.03841178606463824</v>
+        <v>0.03803487703971731</v>
       </c>
       <c r="F9">
-        <v>1.603729111161996</v>
+        <v>1.389475924149494</v>
       </c>
       <c r="G9">
-        <v>1.41685345601573</v>
+        <v>1.197293329079045</v>
       </c>
       <c r="H9">
-        <v>0.004507501188850349</v>
+        <v>0.003671610935531588</v>
       </c>
       <c r="I9">
-        <v>0.00471900718876217</v>
+        <v>0.003539497038806516</v>
       </c>
       <c r="J9">
-        <v>0.882185516438625</v>
+        <v>0.7699396256183206</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0724160565449532</v>
+        <v>0.2859055573632716</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2470406324708279</v>
       </c>
       <c r="N9">
-        <v>0.2075960175020697</v>
+        <v>0.07034784573704655</v>
       </c>
       <c r="O9">
-        <v>0.5813939614524415</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.982189522058647</v>
+        <v>0.2381073080488108</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5597393169091234</v>
+      </c>
+      <c r="R9">
+        <v>0.9291873658276764</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.01400064340379</v>
+        <v>3.657205794485094</v>
       </c>
       <c r="C10">
-        <v>0.6094049623117144</v>
+        <v>0.681908633670389</v>
       </c>
       <c r="D10">
-        <v>0.02039177553934834</v>
+        <v>0.02601277024392701</v>
       </c>
       <c r="E10">
-        <v>0.04130704549044339</v>
+        <v>0.04047988907052247</v>
       </c>
       <c r="F10">
-        <v>1.742431730240796</v>
+        <v>1.482867866033004</v>
       </c>
       <c r="G10">
-        <v>1.559075551055457</v>
+        <v>1.326898391834391</v>
       </c>
       <c r="H10">
-        <v>0.001864035317617585</v>
+        <v>0.001583636755415618</v>
       </c>
       <c r="I10">
-        <v>0.002135015681711039</v>
+        <v>0.001869675615720823</v>
       </c>
       <c r="J10">
-        <v>0.9409288233927953</v>
+        <v>0.7719869135437278</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07850809843633311</v>
+        <v>0.280450866844042</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2681809135195508</v>
       </c>
       <c r="N10">
-        <v>0.2334165688623528</v>
+        <v>0.0762736757942104</v>
       </c>
       <c r="O10">
-        <v>0.676816833377174</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9201424037883088</v>
+        <v>0.267636392838142</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.648613849011177</v>
+      </c>
+      <c r="R10">
+        <v>0.8779879566464661</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.097270067212207</v>
+        <v>3.718711439509718</v>
       </c>
       <c r="C11">
-        <v>0.6685303296848133</v>
+        <v>0.7312490786219428</v>
       </c>
       <c r="D11">
-        <v>0.01949570593737171</v>
+        <v>0.02520033396503152</v>
       </c>
       <c r="E11">
-        <v>0.04231402038550769</v>
+        <v>0.04150845770503153</v>
       </c>
       <c r="F11">
-        <v>1.618959991643422</v>
+        <v>1.352521412256394</v>
       </c>
       <c r="G11">
-        <v>1.449921836877735</v>
+        <v>1.282277457749956</v>
       </c>
       <c r="H11">
-        <v>0.02024074497780859</v>
+        <v>0.02005484152947545</v>
       </c>
       <c r="I11">
-        <v>0.002221341834257373</v>
+        <v>0.00223837671616689</v>
       </c>
       <c r="J11">
-        <v>0.8807948821340972</v>
+        <v>0.6412838717596969</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08647388085376662</v>
+        <v>0.2475431143812052</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2435744487534706</v>
       </c>
       <c r="N11">
-        <v>0.1867095883565923</v>
+        <v>0.08697575501969368</v>
       </c>
       <c r="O11">
-        <v>0.6531934023844528</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8830634562045692</v>
+        <v>0.2157692485739631</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6221397127216122</v>
+      </c>
+      <c r="R11">
+        <v>0.8724859661795499</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.047169572926578</v>
+        <v>3.673888629753321</v>
       </c>
       <c r="C12">
-        <v>0.6963123116051975</v>
+        <v>0.7507339585028774</v>
       </c>
       <c r="D12">
-        <v>0.01846525202252813</v>
+        <v>0.02368187637429031</v>
       </c>
       <c r="E12">
-        <v>0.04501076743967403</v>
+        <v>0.04414304805905722</v>
       </c>
       <c r="F12">
-        <v>1.494007084897035</v>
+        <v>1.238722100581185</v>
       </c>
       <c r="G12">
-        <v>1.336402400061104</v>
+        <v>1.208471283778835</v>
       </c>
       <c r="H12">
-        <v>0.05901013014920409</v>
+        <v>0.05883189149799506</v>
       </c>
       <c r="I12">
-        <v>0.002172730317417049</v>
+        <v>0.00221152941845304</v>
       </c>
       <c r="J12">
-        <v>0.8217453905485286</v>
+        <v>0.5651181295200018</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09818984928509877</v>
+        <v>0.2251588999154599</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2217326130228727</v>
       </c>
       <c r="N12">
-        <v>0.1463372436412698</v>
+        <v>0.1007976915026916</v>
       </c>
       <c r="O12">
-        <v>0.6140183680434603</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8760698206768325</v>
+        <v>0.1706860683846187</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5832333747576754</v>
+      </c>
+      <c r="R12">
+        <v>0.8884222661914265</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.883148283195624</v>
+        <v>3.542583341262571</v>
       </c>
       <c r="C13">
-        <v>0.7035430290480065</v>
+        <v>0.7529669355771489</v>
       </c>
       <c r="D13">
-        <v>0.01735131360633257</v>
+        <v>0.02159458073157339</v>
       </c>
       <c r="E13">
-        <v>0.04904144008384748</v>
+        <v>0.04825865006536567</v>
       </c>
       <c r="F13">
-        <v>1.354943029426991</v>
+        <v>1.129053936184249</v>
       </c>
       <c r="G13">
-        <v>1.206734680387186</v>
+        <v>1.09413221453201</v>
       </c>
       <c r="H13">
-        <v>0.1151227357276952</v>
+        <v>0.1148739253254121</v>
       </c>
       <c r="I13">
-        <v>0.002382061322581563</v>
+        <v>0.002324507651348284</v>
       </c>
       <c r="J13">
-        <v>0.7569209954421581</v>
+        <v>0.5298936979422706</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1131629512544023</v>
+        <v>0.2079322729565618</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2003593115440481</v>
       </c>
       <c r="N13">
-        <v>0.1094574965906787</v>
+        <v>0.1175643673021654</v>
       </c>
       <c r="O13">
-        <v>0.5602781318642442</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8896806541430884</v>
+        <v>0.1292756128063886</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5328266059235034</v>
+      </c>
+      <c r="R13">
+        <v>0.9169873811723406</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.715989945230092</v>
+        <v>3.410050015178058</v>
       </c>
       <c r="C14">
-        <v>0.6997865734224717</v>
+        <v>0.7471669764754836</v>
       </c>
       <c r="D14">
-        <v>0.01657104340272308</v>
+        <v>0.02002617600946621</v>
       </c>
       <c r="E14">
-        <v>0.05273553049945967</v>
+        <v>0.05215818371534908</v>
       </c>
       <c r="F14">
-        <v>1.251554622403788</v>
+        <v>1.05315019216998</v>
       </c>
       <c r="G14">
-        <v>1.108828509856266</v>
+        <v>0.9977193087321723</v>
       </c>
       <c r="H14">
-        <v>0.1648668993618401</v>
+        <v>0.1645220722672178</v>
       </c>
       <c r="I14">
-        <v>0.00278144231168298</v>
+        <v>0.002600832576684198</v>
       </c>
       <c r="J14">
-        <v>0.7089568405496891</v>
+        <v>0.5201026174058967</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1258093311792123</v>
+        <v>0.1976992748458954</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1855865298670345</v>
       </c>
       <c r="N14">
-        <v>0.08625551934385101</v>
+        <v>0.1312764506392199</v>
       </c>
       <c r="O14">
-        <v>0.5164124458678572</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9095416300828241</v>
+        <v>0.10304023240964</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4924921765767465</v>
+      </c>
+      <c r="R14">
+        <v>0.9424768523654024</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.649551305572004</v>
+        <v>3.357302521127679</v>
       </c>
       <c r="C15">
-        <v>0.6950471759736843</v>
+        <v>0.7425509189104389</v>
       </c>
       <c r="D15">
-        <v>0.01635180860712104</v>
+        <v>0.01957509752475772</v>
       </c>
       <c r="E15">
-        <v>0.0535881599900776</v>
+        <v>0.05313735350502746</v>
       </c>
       <c r="F15">
-        <v>1.222026193924393</v>
+        <v>1.033524445674828</v>
       </c>
       <c r="G15">
-        <v>1.080134117711026</v>
+        <v>0.9659688314205681</v>
       </c>
       <c r="H15">
-        <v>0.1775745418912038</v>
+        <v>0.1771806639782625</v>
       </c>
       <c r="I15">
-        <v>0.003089801908739531</v>
+        <v>0.002864719150450945</v>
       </c>
       <c r="J15">
-        <v>0.6953537634607159</v>
+        <v>0.5234448064225887</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1287774887438147</v>
+        <v>0.1956697325474224</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1816948957867197</v>
       </c>
       <c r="N15">
-        <v>0.08081892199607665</v>
+        <v>0.1344679937447566</v>
       </c>
       <c r="O15">
-        <v>0.5025557668140976</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9175460105688131</v>
+        <v>0.09686738939955575</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4800267208060731</v>
+      </c>
+      <c r="R15">
+        <v>0.9501105242289469</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.425943424894058</v>
+        <v>3.177851156055681</v>
       </c>
       <c r="C16">
-        <v>0.6525724187210074</v>
+        <v>0.7044683747838292</v>
       </c>
       <c r="D16">
-        <v>0.01588365113180412</v>
+        <v>0.01867111724883941</v>
       </c>
       <c r="E16">
-        <v>0.05132737836358992</v>
+        <v>0.05146943472365706</v>
       </c>
       <c r="F16">
-        <v>1.190539079614396</v>
+        <v>1.029233893496482</v>
       </c>
       <c r="G16">
-        <v>1.044864166503245</v>
+        <v>0.9028640411495417</v>
       </c>
       <c r="H16">
-        <v>0.1659278303355762</v>
+        <v>0.1652730814607253</v>
       </c>
       <c r="I16">
-        <v>0.004188801065138748</v>
+        <v>0.003625887881858247</v>
       </c>
       <c r="J16">
-        <v>0.6827904604659381</v>
+        <v>0.5770300172446525</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1225642039812413</v>
+        <v>0.2017066537666068</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1804553565358908</v>
       </c>
       <c r="N16">
-        <v>0.07853349098148499</v>
+        <v>0.1280153399989814</v>
       </c>
       <c r="O16">
-        <v>0.4737228339711734</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9380852573735226</v>
+        <v>0.09436112132828356</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4557484517018509</v>
+      </c>
+      <c r="R16">
+        <v>0.9559885364203495</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.342786277700156</v>
+        <v>3.10692628208875</v>
       </c>
       <c r="C17">
-        <v>0.6222021626351477</v>
+        <v>0.6770243529806805</v>
       </c>
       <c r="D17">
-        <v>0.01592867779400908</v>
+        <v>0.01877573372709307</v>
       </c>
       <c r="E17">
-        <v>0.04745699345230747</v>
+        <v>0.04778525669299682</v>
       </c>
       <c r="F17">
-        <v>1.22058778261534</v>
+        <v>1.064082289542284</v>
       </c>
       <c r="G17">
-        <v>1.069154657344043</v>
+        <v>0.9092270057313669</v>
       </c>
       <c r="H17">
-        <v>0.1288136710834209</v>
+        <v>0.1280060764067343</v>
       </c>
       <c r="I17">
-        <v>0.004879704755564873</v>
+        <v>0.004120349828867553</v>
       </c>
       <c r="J17">
-        <v>0.6983689919002387</v>
+        <v>0.6180880925208356</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1106451551536267</v>
+        <v>0.2118520727119488</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1866952868544374</v>
       </c>
       <c r="N17">
-        <v>0.08847032676315791</v>
+        <v>0.1153514604172727</v>
       </c>
       <c r="O17">
-        <v>0.4745973782729891</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9430406247754384</v>
+        <v>0.105662633577893</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4579182018543335</v>
+      </c>
+      <c r="R17">
+        <v>0.9493122435209145</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.374480261260942</v>
+        <v>3.129922392703975</v>
       </c>
       <c r="C18">
-        <v>0.5974935122420391</v>
+        <v>0.6561772967727677</v>
       </c>
       <c r="D18">
-        <v>0.01647609705608133</v>
+        <v>0.01968356871896404</v>
       </c>
       <c r="E18">
-        <v>0.04290464216680512</v>
+        <v>0.04314497032510722</v>
       </c>
       <c r="F18">
-        <v>1.311512770077087</v>
+        <v>1.144524900564434</v>
       </c>
       <c r="G18">
-        <v>1.151941089967849</v>
+        <v>0.9712279734193885</v>
       </c>
       <c r="H18">
-        <v>0.07613939037371864</v>
+        <v>0.0752988050919825</v>
       </c>
       <c r="I18">
-        <v>0.004817076888388172</v>
+        <v>0.003960118299467297</v>
       </c>
       <c r="J18">
-        <v>0.7420854356460751</v>
+        <v>0.6665547664508722</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09528627639171461</v>
+        <v>0.228613335386644</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2016280384531086</v>
       </c>
       <c r="N18">
-        <v>0.1125466689638444</v>
+        <v>0.09864543824808436</v>
       </c>
       <c r="O18">
-        <v>0.5018095506193134</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9396637108547061</v>
+        <v>0.132819165556576</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4844476916519795</v>
+      </c>
+      <c r="R18">
+        <v>0.9329897007601318</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.486015364702723</v>
+        <v>3.219267103971333</v>
       </c>
       <c r="C19">
-        <v>0.582345000288484</v>
+        <v>0.6461447016209263</v>
       </c>
       <c r="D19">
-        <v>0.01758584900056093</v>
+        <v>0.0213966860136221</v>
       </c>
       <c r="E19">
-        <v>0.0398084452958849</v>
+        <v>0.03976978780555651</v>
       </c>
       <c r="F19">
-        <v>1.442428793871926</v>
+        <v>1.254817035359665</v>
       </c>
       <c r="G19">
-        <v>1.272555188313731</v>
+        <v>1.067203354053873</v>
       </c>
       <c r="H19">
-        <v>0.03044829732830578</v>
+        <v>0.0296915991667035</v>
       </c>
       <c r="I19">
-        <v>0.004690345747952129</v>
+        <v>0.003940886020557421</v>
       </c>
       <c r="J19">
-        <v>0.8034461103580526</v>
+        <v>0.7206593861068598</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08269438572714805</v>
+        <v>0.2491869930700616</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2221317974983705</v>
       </c>
       <c r="N19">
-        <v>0.1510985500157673</v>
+        <v>0.08414782379590235</v>
       </c>
       <c r="O19">
-        <v>0.5484748664717785</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9375636516799464</v>
+        <v>0.1759265193226724</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5291245184651459</v>
+      </c>
+      <c r="R19">
+        <v>0.9164121730342245</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.838538190398424</v>
+        <v>3.51097412699113</v>
       </c>
       <c r="C20">
-        <v>0.5888521970791487</v>
+        <v>0.6615803929419428</v>
       </c>
       <c r="D20">
-        <v>0.02010704257244633</v>
+        <v>0.02528091882544459</v>
       </c>
       <c r="E20">
-        <v>0.04047628496661582</v>
+        <v>0.03977943031394038</v>
       </c>
       <c r="F20">
-        <v>1.692897292431965</v>
+        <v>1.454325874308651</v>
       </c>
       <c r="G20">
-        <v>1.50785503460628</v>
+        <v>1.266713927094742</v>
       </c>
       <c r="H20">
-        <v>0.002428149667607737</v>
+        <v>0.00201217801564102</v>
       </c>
       <c r="I20">
-        <v>0.003497780010071061</v>
+        <v>0.003172658030967668</v>
       </c>
       <c r="J20">
-        <v>0.9185101376087914</v>
+        <v>0.7917911617427649</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07681964974632383</v>
+        <v>0.280498007393966</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2609219357388781</v>
       </c>
       <c r="N20">
-        <v>0.2277219597385169</v>
+        <v>0.07477325818697267</v>
       </c>
       <c r="O20">
-        <v>0.6500975402378941</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9344857417183299</v>
+        <v>0.2611090534698093</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6249298054411625</v>
+      </c>
+      <c r="R20">
+        <v>0.8911917932264419</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.333447342910233</v>
+        <v>3.89885280879588</v>
       </c>
       <c r="C21">
-        <v>0.659908857961625</v>
+        <v>0.7264422296551061</v>
       </c>
       <c r="D21">
-        <v>0.02173405239101278</v>
+        <v>0.02929246460275792</v>
       </c>
       <c r="E21">
-        <v>0.04310799023818945</v>
+        <v>0.04203332659055459</v>
       </c>
       <c r="F21">
-        <v>1.836524474184273</v>
+        <v>1.517476437459848</v>
       </c>
       <c r="G21">
-        <v>1.651931644797855</v>
+        <v>1.47150594114666</v>
       </c>
       <c r="H21">
-        <v>0.0006973009117092754</v>
+        <v>0.0006256819782231027</v>
       </c>
       <c r="I21">
-        <v>0.002108216701575572</v>
+        <v>0.002302028596451677</v>
       </c>
       <c r="J21">
-        <v>0.9811609000250883</v>
+        <v>0.6763067255087947</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08142941551459248</v>
+        <v>0.2747402273727886</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2762035172428625</v>
       </c>
       <c r="N21">
-        <v>0.2586789853093734</v>
+        <v>0.07836578429816488</v>
       </c>
       <c r="O21">
-        <v>0.7356761507921448</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8915602682347679</v>
+        <v>0.295355755049215</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6983667611358655</v>
+      </c>
+      <c r="R21">
+        <v>0.8539261857374179</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.654476901700093</v>
+        <v>4.145943567717836</v>
       </c>
       <c r="C22">
-        <v>0.705673745977407</v>
+        <v>0.7663134460353831</v>
       </c>
       <c r="D22">
-        <v>0.02263850841687898</v>
+        <v>0.03194352588613825</v>
       </c>
       <c r="E22">
-        <v>0.04474475925494237</v>
+        <v>0.04348042431452481</v>
       </c>
       <c r="F22">
-        <v>1.925801636351821</v>
+        <v>1.551351210375103</v>
       </c>
       <c r="G22">
-        <v>1.742640544926672</v>
+        <v>1.613363595931759</v>
       </c>
       <c r="H22">
-        <v>0.0001697588889004731</v>
+        <v>0.0001864413218375383</v>
       </c>
       <c r="I22">
-        <v>0.001452743865713479</v>
+        <v>0.00173310177043362</v>
       </c>
       <c r="J22">
-        <v>1.020441522719324</v>
+        <v>0.5987585665566968</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08453107555539496</v>
+        <v>0.2699550547763607</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2854558619565566</v>
       </c>
       <c r="N22">
-        <v>0.2747439538989482</v>
+        <v>0.08094602539453533</v>
       </c>
       <c r="O22">
-        <v>0.7884348646090373</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8637290882503645</v>
+        <v>0.3131125363860434</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7425886133197324</v>
+      </c>
+      <c r="R22">
+        <v>0.8313129802906722</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.489749324106697</v>
+        <v>4.026319494681275</v>
       </c>
       <c r="C23">
-        <v>0.6794234214105757</v>
+        <v>0.7454051623393525</v>
       </c>
       <c r="D23">
-        <v>0.02208686862316078</v>
+        <v>0.03018152496692394</v>
       </c>
       <c r="E23">
-        <v>0.04389005274704072</v>
+        <v>0.04270844482337388</v>
       </c>
       <c r="F23">
-        <v>1.882550475954091</v>
+        <v>1.542544638859326</v>
       </c>
       <c r="G23">
-        <v>1.698943816015486</v>
+        <v>1.530394694307859</v>
       </c>
       <c r="H23">
-        <v>0.0004019490302757944</v>
+        <v>0.0003807913612918767</v>
       </c>
       <c r="I23">
-        <v>0.001434140914304827</v>
+        <v>0.001620900252655488</v>
       </c>
       <c r="J23">
-        <v>1.001837871072951</v>
+        <v>0.6574421548178861</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08290905120386682</v>
+        <v>0.2743739435340018</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.282688176605987</v>
       </c>
       <c r="N23">
-        <v>0.2656095292462055</v>
+        <v>0.0796151254710038</v>
       </c>
       <c r="O23">
-        <v>0.7607650936500931</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8791120479996897</v>
+        <v>0.3031722546722477</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7203564535622249</v>
+      </c>
+      <c r="R23">
+        <v>0.8426865954218421</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.856819436033561</v>
+        <v>3.526631246370471</v>
       </c>
       <c r="C24">
-        <v>0.5838764486745163</v>
+        <v>0.6569500294550039</v>
       </c>
       <c r="D24">
-        <v>0.02015348182510657</v>
+        <v>0.02536674036861086</v>
       </c>
       <c r="E24">
-        <v>0.04065961140466667</v>
+        <v>0.03992242333253204</v>
       </c>
       <c r="F24">
-        <v>1.714255300406762</v>
+        <v>1.472846373728899</v>
       </c>
       <c r="G24">
-        <v>1.52846265129719</v>
+        <v>1.283170658447034</v>
       </c>
       <c r="H24">
-        <v>0.002233889204458661</v>
+        <v>0.001827931731132493</v>
       </c>
       <c r="I24">
-        <v>0.002955463595406549</v>
+        <v>0.002538965102309554</v>
       </c>
       <c r="J24">
-        <v>0.9289789643403878</v>
+        <v>0.8019388074436904</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07674728453601976</v>
+        <v>0.2845811959991309</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2649381327944837</v>
       </c>
       <c r="N24">
-        <v>0.2321429345521864</v>
+        <v>0.07439188468852187</v>
       </c>
       <c r="O24">
-        <v>0.6555374947243848</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9377650232163601</v>
+        <v>0.2660604492558321</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6301580052677309</v>
+      </c>
+      <c r="R24">
+        <v>0.8912435729826669</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.177279475337741</v>
+        <v>2.920194719832409</v>
       </c>
       <c r="C25">
-        <v>0.4824144467757776</v>
+        <v>0.5384280330889055</v>
       </c>
       <c r="D25">
-        <v>0.01814692634903992</v>
+        <v>0.02275486332676024</v>
       </c>
       <c r="E25">
-        <v>0.03722803031076316</v>
+        <v>0.03703617227703526</v>
       </c>
       <c r="F25">
-        <v>1.538239168608285</v>
+        <v>1.341073008725246</v>
       </c>
       <c r="G25">
-        <v>1.350085272241586</v>
+        <v>1.140368704871833</v>
       </c>
       <c r="H25">
-        <v>0.006037788302589275</v>
+        <v>0.004904622798767577</v>
       </c>
       <c r="I25">
-        <v>0.006732550753449473</v>
+        <v>0.005175209480391629</v>
       </c>
       <c r="J25">
-        <v>0.853402563525492</v>
+        <v>0.75766354432821</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07013090847761605</v>
+        <v>0.2845789286380196</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.236719559699349</v>
       </c>
       <c r="N25">
-        <v>0.1964329959628657</v>
+        <v>0.06828419188907997</v>
       </c>
       <c r="O25">
-        <v>0.542699690762241</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.003667445386102</v>
+        <v>0.2253124893046419</v>
       </c>
       <c r="Q25">
+        <v>0.5233230431188858</v>
+      </c>
+      <c r="R25">
+        <v>0.9490151184917419</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
